--- a/simulacao.xlsx
+++ b/simulacao.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GIT\neurocutseb\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6AA350D-4C00-48ED-A4D2-4D98603F96A8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01018DED-ABC6-483C-87BA-75FA3E781A1B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="2" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="433" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="405" uniqueCount="91">
   <si>
     <t>Arquivo</t>
   </si>
@@ -250,389 +250,7 @@
     <t>Qtde Memória Excedente</t>
   </si>
   <si>
-    <t>Executar</t>
-  </si>
-  <si>
-    <t>Para cada experimento executar conforme abaixo:</t>
-  </si>
-  <si>
-    <t>ELITON</t>
-  </si>
-  <si>
-    <t>Na pasta eb:</t>
-  </si>
-  <si>
-    <t>python run_neurocuts.py --rules=acl1_1k --dump-dir=/tmp/trees --num-workers=7 --gpu –partition-mode=None –depth-weight=0 &gt; exp_acl1_1k_eb_w0.txt</t>
-  </si>
-  <si>
-    <t>JONATHAN</t>
-  </si>
-  <si>
-    <t>python run_neurocuts.py --rules=acl1_1k --dump-dir=/tmp/trees --num-workers=7 --gpu –partition-mode=None –depth-weight=1 &gt; exp_acl1_1k_eb_w1.txt</t>
-  </si>
-  <si>
-    <t>No original:</t>
-  </si>
-  <si>
-    <t>python run_neurocuts.py --rules=acl1_1k --dump-dir=/tmp/trees --num-workers=7 --gpu –partition-mode=None –depth-weight=0 &gt; exp_acl1_1k_or_w0.txt</t>
-  </si>
-  <si>
-    <t>python run_neurocuts.py --rules=acl1_1k --dump-dir=/tmp/trees --num-workers=7 --gpu –partition-mode=None –depth-weight=1 &gt; exp_acl1_1k_or_w1.txt</t>
-  </si>
-  <si>
     <t>UFMS</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Liberation Sans"/>
-      </rPr>
-      <t>python run_neurocuts.py –rules=neurocuts-master/classbench/</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>fw1_1k</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Liberation Sans"/>
-      </rPr>
-      <t xml:space="preserve"> --dump-dir=/tmp/trees --num-workers=7 --gpu --partition-mode=None –depth-weight=0 &gt; exp_</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>fw1_1k</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Liberation Sans1"/>
-      </rPr>
-      <t>_eb_w0.txt</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Liberation Sans"/>
-      </rPr>
-      <t>python run_neurocuts.py –rules=neurocuts-master/classbench/</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>fw1_1k</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Liberation Sans"/>
-      </rPr>
-      <t xml:space="preserve"> --dump-dir=/tmp/trees --num-workers=7 --gpu --partition-mode=None --depth-weight=1 &gt; exp_</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>fw1_1k</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Liberation Sans1"/>
-      </rPr>
-      <t>_eb_w1.txt</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Liberation Sans"/>
-      </rPr>
-      <t>python run_neurocuts.py –rules=neurocuts-master/classbench/</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>fw1_1k</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Liberation Sans"/>
-      </rPr>
-      <t xml:space="preserve"> --dump-dir=/tmp/trees --num-workers=7 --gpu --partition-mode=None –depth-weight=0 &gt; exp_</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>fw1_1k</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Liberation Sans1"/>
-      </rPr>
-      <t>_or_w0.txt</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Liberation Sans"/>
-      </rPr>
-      <t>python run_neurocuts.py –rules=neurocuts-master/classbench/</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>fw1_1k</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Liberation Sans"/>
-      </rPr>
-      <t xml:space="preserve"> --dump-dir=/tmp/trees --num-workers=7 --gpu --partition-mode=None --depth-weight=1 &gt; exp_</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>fw1_1k</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Liberation Sans1"/>
-      </rPr>
-      <t>_or_w1.txt</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Liberation Sans"/>
-      </rPr>
-      <t>python run_neurocuts.py –rules=neurocuts-master/classbench/</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>fw2_1k</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Liberation Sans"/>
-      </rPr>
-      <t xml:space="preserve"> --dump-dir=/tmp/trees --num-workers=7 --gpu –partition-mode=None –depth-weight=0 &gt; exp_</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>fw2_1k</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Liberation Sans1"/>
-      </rPr>
-      <t>_eb_w0.txt</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Liberation Sans"/>
-      </rPr>
-      <t>python run_neurocuts.py –rules=</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>fw2_1k</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Liberation Sans"/>
-      </rPr>
-      <t xml:space="preserve"> --dump-dir=/tmp/trees --num-workers=7 --gpu –partition-mode=None –depth-weight=1 &gt; exp_</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>fw2_1k</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Liberation Sans1"/>
-      </rPr>
-      <t>_eb_w1.txt</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Liberation Sans"/>
-      </rPr>
-      <t>python run_neurocuts.py –rules=</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>fw2_1k</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Liberation Sans"/>
-      </rPr>
-      <t xml:space="preserve"> --dump-dir=/tmp/trees --num-workers=7 --gpu –partition-mode=None –depth-weight=0 &gt; exp_</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>fw2_1k</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Liberation Sans1"/>
-      </rPr>
-      <t>_or_w0.txt</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Liberation Sans"/>
-      </rPr>
-      <t>python run_neurocuts.py –rules=</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>fw2_1k</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Liberation Sans"/>
-      </rPr>
-      <t xml:space="preserve"> --dump-dir=/tmp/trees --num-workers=7 --gpu –partition-mode=None –depth-weight=1 &gt; exp_</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>fw2_1k</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Liberation Sans1"/>
-      </rPr>
-      <t>_or_w1.txt</t>
-    </r>
   </si>
   <si>
     <t>Algoritmo</t>
@@ -708,7 +326,7 @@
     <numFmt numFmtId="166" formatCode="[$R$-416]&quot; &quot;#,##0.00;[Red]&quot;-&quot;[$R$-416]&quot; &quot;#,##0.00"/>
     <numFmt numFmtId="167" formatCode="#,##0&quot; &quot;;&quot;-&quot;#,##0&quot; &quot;;&quot;-&quot;00&quot; &quot;;@&quot; &quot;"/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -815,11 +433,6 @@
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Times New Roman1"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Liberation Sans"/>
     </font>
     <font>
       <b/>
@@ -1523,7 +1136,7 @@
     <xf numFmtId="3" fontId="18" fillId="9" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="18" fillId="9" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="4" fontId="17" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="4" fontId="17" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
@@ -1561,13 +1174,13 @@
     </xf>
     <xf numFmtId="167" fontId="1" fillId="0" borderId="19" xfId="1" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="167" fontId="1" fillId="0" borderId="20" xfId="1" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -2352,6 +1965,988 @@
       <a:prstDash val="solid"/>
     </a:ln>
   </c:spPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="pt-BR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="pt-BR" sz="1400" b="0" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>Tempo de Classificação (Profundidade da árvore)</a:t>
+            </a:r>
+            <a:endParaRPr lang="pt-BR" sz="1400">
+              <a:effectLst/>
+            </a:endParaRPr>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.10512430238457633"/>
+          <c:y val="3.6985668053629218E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pt-BR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Resultado do Experimentos'!$F$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>NeuroCusts</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Resultado do Experimentos'!$A$3:$A$11</c:f>
+              <c:strCache>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>acl2_1k</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>acl4_1k</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>fw1_1k</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>fw2_1k</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>fw3_1k</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>fw4_1k</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>fw5_1k</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>ipc1_1k</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>ipc2_1k</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Resultado do Experimentos'!$F$3:$F$11</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0" ";"-"#,##0" ";"-"00" ";@" "</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>14</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-4570-46E7-8410-4B92DA4D7D0B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Resultado do Experimentos'!$G$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>NeuroCustsBE</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Resultado do Experimentos'!$A$3:$A$11</c:f>
+              <c:strCache>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>acl2_1k</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>acl4_1k</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>fw1_1k</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>fw2_1k</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>fw3_1k</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>fw4_1k</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>fw5_1k</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>ipc1_1k</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>ipc2_1k</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Resultado do Experimentos'!$G$3:$G$11</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0" ";"-"#,##0" ";"-"00" ";@" "</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>7</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-4570-46E7-8410-4B92DA4D7D0B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="795876319"/>
+        <c:axId val="795400303"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="795876319"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="795400303"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="795400303"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="#,##0&quot; &quot;;&quot;-&quot;#,##0&quot; &quot;;&quot;-&quot;00&quot; &quot;;@&quot; &quot;" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="795876319"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pt-BR"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="pt-BR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="pt-BR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="pt-BR" sz="1200" b="0" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>Área de cobertura da memória (Bytes por regra - Log) </a:t>
+            </a:r>
+            <a:endParaRPr lang="pt-BR" sz="1200">
+              <a:effectLst/>
+            </a:endParaRPr>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="8.2484397174779039E-2"/>
+          <c:y val="3.2407407407407406E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pt-BR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Resultado do Experimentos'!$N$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>NeuroCusts</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Resultado do Experimentos'!$I$3:$I$11</c:f>
+              <c:strCache>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>acl2_1k</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>acl4_1k</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>fw1_1k</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>fw2_1k</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>fw3_1k</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>fw4_1k</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>fw5_1k</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>ipc1_1k</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>ipc2_1k</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Resultado do Experimentos'!$N$3:$N$11</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0" ";"-"#,##0" ";"-"00" ";@" "</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>2603</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>558</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1634</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1097</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1309</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5389</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2357</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>212</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>176</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-D34C-4F0C-9B0E-97A6207B7A0D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Resultado do Experimentos'!$O$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>NeuroCustsBE</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Resultado do Experimentos'!$I$3:$I$11</c:f>
+              <c:strCache>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>acl2_1k</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>acl4_1k</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>fw1_1k</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>fw2_1k</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>fw3_1k</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>fw4_1k</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>fw5_1k</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>ipc1_1k</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>ipc2_1k</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Resultado do Experimentos'!$O$3:$O$11</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0" ";"-"#,##0" ";"-"00" ";@" "</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>1161</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>887</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>404</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>533</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>335</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>345</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>84</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>965</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>197</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-D34C-4F0C-9B0E-97A6207B7A0D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="482260047"/>
+        <c:axId val="704068463"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="482260047"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="704068463"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="704068463"/>
+        <c:scaling>
+          <c:logBase val="10"/>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="#,##0&quot; &quot;;&quot;-&quot;#,##0&quot; &quot;;&quot;-&quot;00&quot; &quot;;@&quot; &quot;" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="482260047"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pt-BR"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="pt-BR"/>
+    </a:p>
+  </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
     <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
@@ -3487,6 +4082,1675 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
+              <a:rPr lang="pt-BR" sz="1800" b="1" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>Comparativo da quantidade de bits BE X Normal por aquivo (Alocação estática)</a:t>
+            </a:r>
+            <a:endParaRPr lang="pt-BR">
+              <a:effectLst/>
+            </a:endParaRPr>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pt-BR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>EB</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Por octeto'!$A$2:$A$37</c:f>
+              <c:strCache>
+                <c:ptCount val="36"/>
+                <c:pt idx="0">
+                  <c:v>acl1_1k</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>acl1_10k</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>acl1_100k</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>acl2_1k</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>acl2_10k</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>acl2_100k</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>acl3_1k</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>acl3_10k</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>acl3_100k</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>acl4_1k</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>acl4_10k</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>acl4_100k</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>acl5_1k</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>acl5_10k</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>acl5_100k</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>fw1_1k</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>fw1_10k</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>fw1_100k</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>fw2_1k</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>fw2_10k</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>fw2_100k</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>fw3_1k</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>fw3_10k</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>fw3_100k</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>fw4_1k</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>fw4_10k</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>fw4_100k</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>fw5_1k</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>fw5_10k</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>fw5_100k</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>ipc1_1k</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>ipc1_10k</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>ipc1_100k</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>ipc2_1k</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>ipc2_10k</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>ipc2_100k</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Por octeto'!$H$2:$H$37</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0</c:formatCode>
+                <c:ptCount val="36"/>
+                <c:pt idx="0">
+                  <c:v>119776</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1284560</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>13013152</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>108944</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1074736</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>8653744</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>122936</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1156888</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>12180568</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>114696</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1169672</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12167192</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>118024</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>971544</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>13054576</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>91328</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1013776</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>9687104</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>90576</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>913368</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>9064584</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>83088</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>957848</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>9123312</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>89608</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>941976</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>9214736</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>87320</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>914872</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>8807224</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>116320</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>1137864</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>11889360</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>83784</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>1220624</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>12215280</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-1531-468E-80AC-700DE245CBA8}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Normal</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Por octeto'!$A$2:$A$37</c:f>
+              <c:strCache>
+                <c:ptCount val="36"/>
+                <c:pt idx="0">
+                  <c:v>acl1_1k</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>acl1_10k</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>acl1_100k</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>acl2_1k</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>acl2_10k</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>acl2_100k</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>acl3_1k</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>acl3_10k</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>acl3_100k</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>acl4_1k</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>acl4_10k</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>acl4_100k</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>acl5_1k</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>acl5_10k</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>acl5_100k</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>fw1_1k</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>fw1_10k</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>fw1_100k</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>fw2_1k</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>fw2_10k</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>fw2_100k</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>fw3_1k</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>fw3_10k</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>fw3_100k</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>fw4_1k</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>fw4_10k</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>fw4_100k</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>fw5_1k</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>fw5_10k</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>fw5_100k</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>ipc1_1k</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>ipc1_10k</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>ipc1_100k</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>ipc2_1k</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>ipc2_10k</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>ipc2_100k</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Por octeto'!$I$2:$I$37</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0</c:formatCode>
+                <c:ptCount val="36"/>
+                <c:pt idx="0">
+                  <c:v>120576</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1251072</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>12712832</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>123008</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1212928</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>9612800</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>126720</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1205632</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>12733568</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>126720</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1227968</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12678656</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>119424</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>934144</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>12567040</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>109696</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1200512</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>11274368</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>124288</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1235840</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>12297984</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>102272</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1156736</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>10720256</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>108416</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1123200</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>10747776</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>110592</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>1130624</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>10726016</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>124672</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>1218304</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>12713600</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>89088</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>1280000</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>12800000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-1531-468E-80AC-700DE245CBA8}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="1390040192"/>
+        <c:axId val="1320279840"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1390040192"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1320279840"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1320279840"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="#,##0" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1390040192"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pt-BR"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="pt-BR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="pt-BR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="pt-BR"/>
+              <a:t>Comparativo do percentual de memória necessária com EB versus Normal</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pt-BR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:delete val="1"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Por octeto'!$A$2:$A$37</c:f>
+              <c:strCache>
+                <c:ptCount val="36"/>
+                <c:pt idx="0">
+                  <c:v>acl1_1k</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>acl1_10k</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>acl1_100k</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>acl2_1k</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>acl2_10k</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>acl2_100k</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>acl3_1k</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>acl3_10k</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>acl3_100k</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>acl4_1k</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>acl4_10k</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>acl4_100k</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>acl5_1k</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>acl5_10k</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>acl5_100k</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>fw1_1k</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>fw1_10k</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>fw1_100k</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>fw2_1k</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>fw2_10k</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>fw2_100k</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>fw3_1k</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>fw3_10k</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>fw3_100k</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>fw4_1k</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>fw4_10k</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>fw4_100k</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>fw5_1k</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>fw5_10k</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>fw5_100k</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>ipc1_1k</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>ipc1_10k</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>ipc1_100k</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>ipc2_1k</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>ipc2_10k</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>ipc2_100k</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Por octeto'!$J$2:$J$37</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="36"/>
+                <c:pt idx="0">
+                  <c:v>-6.6348195329086757E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.6767444239820026E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.3623375185009898E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-0.11433402705515083</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-0.11393256648374839</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-9.9768641810918823E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-2.9861111111111116E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-4.0430247372332473E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-4.3428519013681055E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-9.4886363636363602E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-4.7473549799343262E-2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-4.0340553446674421E-2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-1.1722936763129743E-2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>4.0036653877774775E-2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>3.8794815644734193E-2</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-0.16744457409568259</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>-0.15554696662757228</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>-0.14078518636255266</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>-0.27124098867147273</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>-0.26093345416882441</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>-0.26292114219696494</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>-0.18757822277847314</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>-0.17193897311054551</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>-0.14896509934091129</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>-0.17347992916174737</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>-0.16134615384615381</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>-0.1426378815487036</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>-0.2104311342592593</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>-0.19082559719234693</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>-0.17889139826008094</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>-6.699178644763859E-2</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>-6.602621349022908E-2</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>-6.4831361691417011E-2</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>-5.9536637931034475E-2</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>-4.6387500000000026E-2</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>-4.5681250000000007E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-E349-4F94-872B-AF2573B5A1FF}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="1435844560"/>
+        <c:axId val="1054498336"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1435844560"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1054498336"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1054498336"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.00%" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1435844560"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="zero"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="pt-BR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="pt-BR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Percentual médio</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> da quantidade de m</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>emória excedente por tipo de classbrench</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pt-BR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Por octeto'!$J$42</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Qtde Memória Excedente </c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="pt-BR"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Por octeto'!$A$43:$A$45</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>acl</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>fw</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>ipc</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Por octeto'!$J$43:$J$45</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>-2.1603195345809345E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-0.17835145524324059</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-5.5355013083128846E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-5B40-42DA-951B-39DD437857F8}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="1582049200"/>
+        <c:axId val="1054375264"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1582049200"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1054375264"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1054375264"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.00%" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1582049200"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="pt-BR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="pt-BR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
               <a:rPr lang="pt-BR"/>
               <a:t>Tempo de Classificação (Profundidade da árvore)</a:t>
             </a:r>
@@ -4331,7 +6595,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="pt-BR"/>
@@ -5131,988 +7395,6 @@
           </a:p>
         </c:txPr>
         <c:crossAx val="691964399"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="b"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="pt-BR"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="pt-BR"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="pt-BR"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="pt-BR" sz="1400" b="0" i="0" baseline="0">
-                <a:effectLst/>
-              </a:rPr>
-              <a:t>Tempo de Classificação (Profundidade da árvore)</a:t>
-            </a:r>
-            <a:endParaRPr lang="pt-BR" sz="1400">
-              <a:effectLst/>
-            </a:endParaRPr>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:layout>
-        <c:manualLayout>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="0.10512430238457633"/>
-          <c:y val="3.6985668053629218E-2"/>
-        </c:manualLayout>
-      </c:layout>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="pt-BR"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:barChart>
-        <c:barDir val="col"/>
-        <c:grouping val="clustered"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Resultado do Experimentos'!$F$2</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>NeuroCusts</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent1"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>'Resultado do Experimentos'!$A$3:$A$11</c:f>
-              <c:strCache>
-                <c:ptCount val="9"/>
-                <c:pt idx="0">
-                  <c:v>acl2_1k</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>acl4_1k</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>fw1_1k</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>fw2_1k</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>fw3_1k</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>fw4_1k</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>fw5_1k</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>ipc1_1k</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>ipc2_1k</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'Resultado do Experimentos'!$F$3:$F$11</c:f>
-              <c:numCache>
-                <c:formatCode>#,##0" ";"-"#,##0" ";"-"00" ";@" "</c:formatCode>
-                <c:ptCount val="9"/>
-                <c:pt idx="0">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>46</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>14</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-4570-46E7-8410-4B92DA4D7D0B}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Resultado do Experimentos'!$G$2</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>NeuroCustsBE</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent2"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>'Resultado do Experimentos'!$A$3:$A$11</c:f>
-              <c:strCache>
-                <c:ptCount val="9"/>
-                <c:pt idx="0">
-                  <c:v>acl2_1k</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>acl4_1k</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>fw1_1k</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>fw2_1k</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>fw3_1k</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>fw4_1k</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>fw5_1k</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>ipc1_1k</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>ipc2_1k</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'Resultado do Experimentos'!$G$3:$G$11</c:f>
-              <c:numCache>
-                <c:formatCode>#,##0" ";"-"#,##0" ";"-"00" ";@" "</c:formatCode>
-                <c:ptCount val="9"/>
-                <c:pt idx="0">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>7</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-4570-46E7-8410-4B92DA4D7D0B}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:gapWidth val="219"/>
-        <c:overlap val="-27"/>
-        <c:axId val="795876319"/>
-        <c:axId val="795400303"/>
-      </c:barChart>
-      <c:catAx>
-        <c:axId val="795876319"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="pt-BR"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="795400303"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="795400303"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="#,##0&quot; &quot;;&quot;-&quot;#,##0&quot; &quot;;&quot;-&quot;00&quot; &quot;;@&quot; &quot;" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="pt-BR"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="795876319"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="b"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="pt-BR"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="pt-BR"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="pt-BR"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="pt-BR" sz="1200" b="0" i="0" baseline="0">
-                <a:effectLst/>
-              </a:rPr>
-              <a:t>Área de cobertura da memória (Bytes por regra - Log) </a:t>
-            </a:r>
-            <a:endParaRPr lang="pt-BR" sz="1200">
-              <a:effectLst/>
-            </a:endParaRPr>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:layout>
-        <c:manualLayout>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="8.2484397174779039E-2"/>
-          <c:y val="3.2407407407407406E-2"/>
-        </c:manualLayout>
-      </c:layout>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="pt-BR"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:barChart>
-        <c:barDir val="col"/>
-        <c:grouping val="clustered"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Resultado do Experimentos'!$N$2</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>NeuroCusts</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent1"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>'Resultado do Experimentos'!$I$3:$I$11</c:f>
-              <c:strCache>
-                <c:ptCount val="9"/>
-                <c:pt idx="0">
-                  <c:v>acl2_1k</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>acl4_1k</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>fw1_1k</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>fw2_1k</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>fw3_1k</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>fw4_1k</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>fw5_1k</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>ipc1_1k</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>ipc2_1k</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'Resultado do Experimentos'!$N$3:$N$11</c:f>
-              <c:numCache>
-                <c:formatCode>#,##0" ";"-"#,##0" ";"-"00" ";@" "</c:formatCode>
-                <c:ptCount val="9"/>
-                <c:pt idx="0">
-                  <c:v>2603</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>558</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1634</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1097</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1309</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>5389</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>2357</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>212</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>176</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-D34C-4F0C-9B0E-97A6207B7A0D}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Resultado do Experimentos'!$O$2</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>NeuroCustsBE</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent2"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>'Resultado do Experimentos'!$I$3:$I$11</c:f>
-              <c:strCache>
-                <c:ptCount val="9"/>
-                <c:pt idx="0">
-                  <c:v>acl2_1k</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>acl4_1k</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>fw1_1k</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>fw2_1k</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>fw3_1k</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>fw4_1k</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>fw5_1k</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>ipc1_1k</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>ipc2_1k</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'Resultado do Experimentos'!$O$3:$O$11</c:f>
-              <c:numCache>
-                <c:formatCode>#,##0" ";"-"#,##0" ";"-"00" ";@" "</c:formatCode>
-                <c:ptCount val="9"/>
-                <c:pt idx="0">
-                  <c:v>1161</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>887</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>404</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>533</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>335</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>345</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>84</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>965</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>197</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-D34C-4F0C-9B0E-97A6207B7A0D}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:gapWidth val="219"/>
-        <c:overlap val="-27"/>
-        <c:axId val="482260047"/>
-        <c:axId val="704068463"/>
-      </c:barChart>
-      <c:catAx>
-        <c:axId val="482260047"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="pt-BR"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="704068463"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="704068463"/>
-        <c:scaling>
-          <c:logBase val="10"/>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="#,##0&quot; &quot;;&quot;-&quot;#,##0&quot; &quot;;&quot;-&quot;00&quot; &quot;;@&quot; &quot;" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="pt-BR"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="482260047"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6359,6 +7641,126 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
@@ -7869,6 +9271,1515 @@
 </file>
 
 <file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -8501,6 +11412,119 @@
 </file>
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>188595</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>72390</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>144780</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Gráfico 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4F6FAFCD-9105-4675-8464-FE992D482AC6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>144780</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Gráfico 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{42C89534-F9EE-4D5F-BA33-1277DC1C93B3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>792480</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>257175</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>68580</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>160020</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Gráfico 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{119A7BCA-7C09-4650-B307-33ACAA134CF8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -8948,7 +11972,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BL45"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:F38"/>
     </sheetView>
   </sheetViews>
@@ -10791,7 +13815,7 @@
   <dimension ref="A1:J18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -11140,9 +14164,11 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:N45"/>
+  <dimension ref="A1:J45"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A20" activeCellId="1" sqref="A1:J1 A20:J38"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
@@ -11153,13 +14179,13 @@
     <col min="5" max="5" width="8.75" customWidth="1"/>
     <col min="6" max="6" width="10.125" customWidth="1"/>
     <col min="7" max="7" width="9.25" customWidth="1"/>
-    <col min="8" max="8" width="10.625" customWidth="1"/>
+    <col min="8" max="8" width="10.875" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="11.375" customWidth="1"/>
     <col min="10" max="10" width="10.375" customWidth="1"/>
     <col min="11" max="14" width="10.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="47.25">
+    <row r="1" spans="1:10" ht="47.25">
       <c r="A1" s="37" t="s">
         <v>0</v>
       </c>
@@ -11190,14 +14216,8 @@
       <c r="J1" s="39" t="s">
         <v>68</v>
       </c>
-      <c r="K1" t="s">
-        <v>69</v>
-      </c>
-      <c r="M1" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14" ht="15.75">
+    </row>
+    <row r="2" spans="1:10" ht="15.75">
       <c r="A2" s="40" t="s">
         <v>6</v>
       </c>
@@ -11231,14 +14251,8 @@
         <f t="shared" ref="J2:J38" si="2">H2/I2-1</f>
         <v>-6.6348195329086757E-3</v>
       </c>
-      <c r="K2" t="s">
-        <v>71</v>
-      </c>
-      <c r="L2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" ht="15.75">
+    </row>
+    <row r="3" spans="1:10" ht="15.75">
       <c r="A3" s="40" t="s">
         <v>7</v>
       </c>
@@ -11272,11 +14286,8 @@
         <f t="shared" si="2"/>
         <v>2.6767444239820026E-2</v>
       </c>
-      <c r="M3" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" ht="15.75">
+    </row>
+    <row r="4" spans="1:10" ht="15.75">
       <c r="A4" s="40" t="s">
         <v>8</v>
       </c>
@@ -11310,11 +14321,8 @@
         <f t="shared" si="2"/>
         <v>2.3623375185009898E-2</v>
       </c>
-      <c r="M4" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" ht="15.75">
+    </row>
+    <row r="5" spans="1:10" ht="15.75">
       <c r="A5" s="40" t="s">
         <v>9</v>
       </c>
@@ -11348,17 +14356,8 @@
         <f t="shared" si="2"/>
         <v>-0.11433402705515083</v>
       </c>
-      <c r="K5" t="s">
-        <v>74</v>
-      </c>
-      <c r="L5">
-        <v>3</v>
-      </c>
-      <c r="M5" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" ht="15.75">
+    </row>
+    <row r="6" spans="1:10" ht="15.75">
       <c r="A6" s="40" t="s">
         <v>10</v>
       </c>
@@ -11393,7 +14392,7 @@
         <v>-0.11393256648374839</v>
       </c>
     </row>
-    <row r="7" spans="1:14" ht="15.75">
+    <row r="7" spans="1:10" ht="15.75">
       <c r="A7" s="40" t="s">
         <v>11</v>
       </c>
@@ -11427,11 +14426,8 @@
         <f t="shared" si="2"/>
         <v>-9.9768641810918823E-2</v>
       </c>
-      <c r="M7" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" ht="15.75">
+    </row>
+    <row r="8" spans="1:10" ht="15.75">
       <c r="A8" s="40" t="s">
         <v>12</v>
       </c>
@@ -11465,11 +14461,8 @@
         <f t="shared" si="2"/>
         <v>-2.9861111111111116E-2</v>
       </c>
-      <c r="M8" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" ht="15.75">
+    </row>
+    <row r="9" spans="1:10" ht="15.75">
       <c r="A9" s="40" t="s">
         <v>13</v>
       </c>
@@ -11503,11 +14496,8 @@
         <f t="shared" si="2"/>
         <v>-4.0430247372332473E-2</v>
       </c>
-      <c r="M9" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" ht="15.75">
+    </row>
+    <row r="10" spans="1:10" ht="15.75">
       <c r="A10" s="40" t="s">
         <v>14</v>
       </c>
@@ -11542,7 +14532,7 @@
         <v>-4.3428519013681055E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:14" ht="15.75">
+    <row r="11" spans="1:10" ht="15.75">
       <c r="A11" s="40" t="s">
         <v>15</v>
       </c>
@@ -11576,14 +14566,8 @@
         <f t="shared" si="2"/>
         <v>-9.4886363636363602E-2</v>
       </c>
-      <c r="K11" t="s">
-        <v>79</v>
-      </c>
-      <c r="L11">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14" ht="15.75">
+    </row>
+    <row r="12" spans="1:10" ht="15.75">
       <c r="A12" s="40" t="s">
         <v>16</v>
       </c>
@@ -11617,11 +14601,8 @@
         <f t="shared" si="2"/>
         <v>-4.7473549799343262E-2</v>
       </c>
-      <c r="N12" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14" ht="15.75">
+    </row>
+    <row r="13" spans="1:10" ht="15.75">
       <c r="A13" s="40" t="s">
         <v>17</v>
       </c>
@@ -11655,11 +14636,8 @@
         <f t="shared" si="2"/>
         <v>-4.0340553446674421E-2</v>
       </c>
-      <c r="N13" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14" ht="15.75">
+    </row>
+    <row r="14" spans="1:10" ht="15.75">
       <c r="A14" s="40" t="s">
         <v>18</v>
       </c>
@@ -11694,7 +14672,7 @@
         <v>-1.1722936763129743E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:14" ht="15.75">
+    <row r="15" spans="1:10" ht="15.75">
       <c r="A15" s="40" t="s">
         <v>19</v>
       </c>
@@ -11728,11 +14706,8 @@
         <f t="shared" si="2"/>
         <v>4.0036653877774775E-2</v>
       </c>
-      <c r="N15" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14" ht="15.75">
+    </row>
+    <row r="16" spans="1:10" ht="15.75">
       <c r="A16" s="40" t="s">
         <v>20</v>
       </c>
@@ -11766,11 +14741,8 @@
         <f t="shared" si="2"/>
         <v>3.8794815644734193E-2</v>
       </c>
-      <c r="N16" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14" ht="15.75">
+    </row>
+    <row r="17" spans="1:10" ht="15.75">
       <c r="A17" s="40" t="s">
         <v>21</v>
       </c>
@@ -11804,17 +14776,8 @@
         <f t="shared" si="2"/>
         <v>-0.16744457409568259</v>
       </c>
-      <c r="K17" t="s">
-        <v>74</v>
-      </c>
-      <c r="L17">
-        <v>1</v>
-      </c>
-      <c r="N17" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14" ht="15.75">
+    </row>
+    <row r="18" spans="1:10" ht="15.75">
       <c r="A18" s="40" t="s">
         <v>22</v>
       </c>
@@ -11849,7 +14812,7 @@
         <v>-0.15554696662757228</v>
       </c>
     </row>
-    <row r="19" spans="1:14" ht="15.75">
+    <row r="19" spans="1:10" ht="15.75">
       <c r="A19" s="40" t="s">
         <v>23</v>
       </c>
@@ -11884,7 +14847,7 @@
         <v>-0.14078518636255266</v>
       </c>
     </row>
-    <row r="20" spans="1:14" ht="15.75">
+    <row r="20" spans="1:10" ht="15.75">
       <c r="A20" s="40" t="s">
         <v>24</v>
       </c>
@@ -11918,17 +14881,8 @@
         <f t="shared" si="2"/>
         <v>-0.27124098867147273</v>
       </c>
-      <c r="K20" t="s">
-        <v>79</v>
-      </c>
-      <c r="L20">
-        <v>1</v>
-      </c>
-      <c r="N20" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14" ht="15.75">
+    </row>
+    <row r="21" spans="1:10" ht="15.75">
       <c r="A21" s="40" t="s">
         <v>25</v>
       </c>
@@ -11962,11 +14916,8 @@
         <f t="shared" si="2"/>
         <v>-0.26093345416882441</v>
       </c>
-      <c r="N21" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14" ht="15.75">
+    </row>
+    <row r="22" spans="1:10" ht="15.75">
       <c r="A22" s="40" t="s">
         <v>26</v>
       </c>
@@ -12001,7 +14952,7 @@
         <v>-0.26292114219696494</v>
       </c>
     </row>
-    <row r="23" spans="1:14" ht="15.75">
+    <row r="23" spans="1:10" ht="15.75">
       <c r="A23" s="45" t="s">
         <v>27</v>
       </c>
@@ -12035,17 +14986,8 @@
         <f t="shared" si="2"/>
         <v>-0.18757822277847314</v>
       </c>
-      <c r="K23" t="s">
-        <v>71</v>
-      </c>
-      <c r="L23">
-        <v>1</v>
-      </c>
-      <c r="N23" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14" ht="15.75">
+    </row>
+    <row r="24" spans="1:10" ht="15.75">
       <c r="A24" s="45" t="s">
         <v>28</v>
       </c>
@@ -12079,11 +15021,8 @@
         <f t="shared" si="2"/>
         <v>-0.17193897311054551</v>
       </c>
-      <c r="N24" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14" ht="15.75">
+    </row>
+    <row r="25" spans="1:10" ht="15.75">
       <c r="A25" s="45" t="s">
         <v>29</v>
       </c>
@@ -12117,11 +15056,8 @@
         <f t="shared" si="2"/>
         <v>-0.14896509934091129</v>
       </c>
-      <c r="N25" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="26" spans="1:14" ht="15.75">
+    </row>
+    <row r="26" spans="1:10" ht="15.75">
       <c r="A26" s="45" t="s">
         <v>30</v>
       </c>
@@ -12155,14 +15091,8 @@
         <f t="shared" si="2"/>
         <v>-0.17347992916174737</v>
       </c>
-      <c r="K26" t="s">
-        <v>79</v>
-      </c>
-      <c r="L26">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="27" spans="1:14" ht="15.75">
+    </row>
+    <row r="27" spans="1:10" ht="15.75">
       <c r="A27" s="45" t="s">
         <v>31</v>
       </c>
@@ -12197,7 +15127,7 @@
         <v>-0.16134615384615381</v>
       </c>
     </row>
-    <row r="28" spans="1:14" ht="15.75">
+    <row r="28" spans="1:10" ht="15.75">
       <c r="A28" s="45" t="s">
         <v>32</v>
       </c>
@@ -12232,7 +15162,7 @@
         <v>-0.1426378815487036</v>
       </c>
     </row>
-    <row r="29" spans="1:14" ht="15.75">
+    <row r="29" spans="1:10" ht="15.75">
       <c r="A29" s="45" t="s">
         <v>33</v>
       </c>
@@ -12266,14 +15196,8 @@
         <f t="shared" si="2"/>
         <v>-0.2104311342592593</v>
       </c>
-      <c r="K29" t="s">
-        <v>71</v>
-      </c>
-      <c r="L29">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="30" spans="1:14" ht="15.75">
+    </row>
+    <row r="30" spans="1:10" ht="15.75">
       <c r="A30" s="45" t="s">
         <v>34</v>
       </c>
@@ -12308,7 +15232,7 @@
         <v>-0.19082559719234693</v>
       </c>
     </row>
-    <row r="31" spans="1:14" ht="15.75">
+    <row r="31" spans="1:10" ht="15.75">
       <c r="A31" s="45" t="s">
         <v>35</v>
       </c>
@@ -12343,7 +15267,7 @@
         <v>-0.17889139826008094</v>
       </c>
     </row>
-    <row r="32" spans="1:14" ht="15.75">
+    <row r="32" spans="1:10" ht="15.75">
       <c r="A32" s="45" t="s">
         <v>36</v>
       </c>
@@ -12377,14 +15301,8 @@
         <f t="shared" si="2"/>
         <v>-6.699178644763859E-2</v>
       </c>
-      <c r="K32" t="s">
-        <v>74</v>
-      </c>
-      <c r="L32">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="33" spans="1:12" ht="15.75">
+    </row>
+    <row r="33" spans="1:10" ht="15.75">
       <c r="A33" s="45" t="s">
         <v>37</v>
       </c>
@@ -12419,7 +15337,7 @@
         <v>-6.602621349022908E-2</v>
       </c>
     </row>
-    <row r="34" spans="1:12" ht="15.75">
+    <row r="34" spans="1:10" ht="15.75">
       <c r="A34" s="45" t="s">
         <v>38</v>
       </c>
@@ -12454,7 +15372,7 @@
         <v>-6.4831361691417011E-2</v>
       </c>
     </row>
-    <row r="35" spans="1:12" ht="15.75">
+    <row r="35" spans="1:10" ht="15.75">
       <c r="A35" s="45" t="s">
         <v>39</v>
       </c>
@@ -12488,14 +15406,8 @@
         <f t="shared" si="2"/>
         <v>-5.9536637931034475E-2</v>
       </c>
-      <c r="K35" t="s">
-        <v>79</v>
-      </c>
-      <c r="L35">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="36" spans="1:12" ht="15.75">
+    </row>
+    <row r="36" spans="1:10" ht="15.75">
       <c r="A36" s="45" t="s">
         <v>40</v>
       </c>
@@ -12530,7 +15442,7 @@
         <v>-4.6387500000000026E-2</v>
       </c>
     </row>
-    <row r="37" spans="1:12" ht="15.75">
+    <row r="37" spans="1:10" ht="15.75">
       <c r="A37" s="45" t="s">
         <v>41</v>
       </c>
@@ -12565,7 +15477,7 @@
         <v>-4.5681250000000007E-2</v>
       </c>
     </row>
-    <row r="38" spans="1:12" ht="15.75">
+    <row r="38" spans="1:10" ht="15.75">
       <c r="A38" s="46" t="s">
         <v>42</v>
       </c>
@@ -12606,7 +15518,7 @@
         <v>-8.967615408643792E-2</v>
       </c>
     </row>
-    <row r="39" spans="1:12" ht="15.75">
+    <row r="39" spans="1:10" ht="15.75">
       <c r="A39" s="3"/>
       <c r="B39" s="23"/>
       <c r="C39" s="23"/>
@@ -12614,7 +15526,7 @@
       <c r="E39" s="3"/>
       <c r="F39" s="3"/>
     </row>
-    <row r="42" spans="1:12" ht="47.25">
+    <row r="42" spans="1:10" ht="47.25">
       <c r="A42" s="37" t="s">
         <v>0</v>
       </c>
@@ -12646,7 +15558,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="43" spans="1:12" ht="15.75">
+    <row r="43" spans="1:10" ht="15.75">
       <c r="A43" s="45" t="s">
         <v>43</v>
       </c>
@@ -12687,7 +15599,7 @@
         <v>-2.1603195345809345E-2</v>
       </c>
     </row>
-    <row r="44" spans="1:12" ht="15.75">
+    <row r="44" spans="1:10" ht="15.75">
       <c r="A44" s="45" t="s">
         <v>44</v>
       </c>
@@ -12728,7 +15640,7 @@
         <v>-0.17835145524324059</v>
       </c>
     </row>
-    <row r="45" spans="1:12" ht="15.75">
+    <row r="45" spans="1:10" ht="15.75">
       <c r="A45" s="45" t="s">
         <v>45</v>
       </c>
@@ -12775,6 +15687,7 @@
     <oddHeader>&amp;C&amp;A</oddHeader>
     <oddFooter>&amp;CPage &amp;P</oddFooter>
   </headerFooter>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -12782,7 +15695,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A55" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
@@ -12815,30 +15728,30 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" t="s">
-        <v>88</v>
+        <v>70</v>
       </c>
       <c r="B1" t="s">
-        <v>89</v>
+        <v>71</v>
       </c>
       <c r="C1" t="s">
         <v>51</v>
       </c>
       <c r="D1" t="s">
-        <v>90</v>
+        <v>72</v>
       </c>
       <c r="E1" t="s">
         <v>0</v>
       </c>
       <c r="F1" t="s">
-        <v>91</v>
+        <v>73</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="15.75">
       <c r="A2" t="s">
-        <v>92</v>
+        <v>74</v>
       </c>
       <c r="B2" t="s">
-        <v>93</v>
+        <v>75</v>
       </c>
       <c r="C2">
         <v>391</v>
@@ -12850,15 +15763,15 @@
         <v>21</v>
       </c>
       <c r="F2" t="s">
-        <v>94</v>
+        <v>76</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="15.75">
       <c r="A3" t="s">
-        <v>92</v>
+        <v>74</v>
       </c>
       <c r="B3" t="s">
-        <v>95</v>
+        <v>77</v>
       </c>
       <c r="C3">
         <v>404</v>
@@ -12870,15 +15783,15 @@
         <v>21</v>
       </c>
       <c r="F3" t="s">
-        <v>94</v>
+        <v>76</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="15.75">
       <c r="A4" t="s">
-        <v>96</v>
+        <v>78</v>
       </c>
       <c r="B4" t="s">
-        <v>97</v>
+        <v>79</v>
       </c>
       <c r="C4">
         <v>3962</v>
@@ -12890,15 +15803,15 @@
         <v>21</v>
       </c>
       <c r="F4" t="s">
-        <v>94</v>
+        <v>76</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="15.75">
       <c r="A5" t="s">
-        <v>96</v>
+        <v>78</v>
       </c>
       <c r="B5" t="s">
-        <v>98</v>
+        <v>80</v>
       </c>
       <c r="C5">
         <v>1634</v>
@@ -12910,15 +15823,15 @@
         <v>21</v>
       </c>
       <c r="F5" t="s">
-        <v>94</v>
+        <v>76</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="15.75">
       <c r="A6" t="s">
-        <v>92</v>
+        <v>74</v>
       </c>
       <c r="B6" t="s">
-        <v>97</v>
+        <v>79</v>
       </c>
       <c r="C6">
         <v>267</v>
@@ -12930,15 +15843,15 @@
         <v>24</v>
       </c>
       <c r="F6" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="15.75">
       <c r="A7" t="s">
-        <v>92</v>
+        <v>74</v>
       </c>
       <c r="B7" t="s">
-        <v>98</v>
+        <v>80</v>
       </c>
       <c r="C7">
         <v>533</v>
@@ -12950,15 +15863,15 @@
         <v>24</v>
       </c>
       <c r="F7" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="15.75">
       <c r="A8" t="s">
-        <v>96</v>
+        <v>78</v>
       </c>
       <c r="B8" t="s">
-        <v>97</v>
+        <v>79</v>
       </c>
       <c r="C8">
         <v>819</v>
@@ -12970,15 +15883,15 @@
         <v>24</v>
       </c>
       <c r="F8" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="15.75">
       <c r="A9" t="s">
-        <v>96</v>
+        <v>78</v>
       </c>
       <c r="B9" t="s">
-        <v>98</v>
+        <v>80</v>
       </c>
       <c r="C9">
         <v>1097</v>
@@ -12990,15 +15903,15 @@
         <v>24</v>
       </c>
       <c r="F9" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="15.75">
       <c r="A10" t="s">
-        <v>92</v>
+        <v>74</v>
       </c>
       <c r="B10" t="s">
-        <v>97</v>
+        <v>79</v>
       </c>
       <c r="C10">
         <v>335</v>
@@ -13010,15 +15923,15 @@
         <v>27</v>
       </c>
       <c r="F10" t="s">
-        <v>99</v>
+        <v>81</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="15.75">
       <c r="A11" t="s">
-        <v>92</v>
+        <v>74</v>
       </c>
       <c r="B11" t="s">
-        <v>98</v>
+        <v>80</v>
       </c>
       <c r="C11">
         <v>390</v>
@@ -13030,15 +15943,15 @@
         <v>27</v>
       </c>
       <c r="F11" t="s">
-        <v>99</v>
+        <v>81</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="15.75">
       <c r="A12" t="s">
-        <v>96</v>
+        <v>78</v>
       </c>
       <c r="B12" t="s">
-        <v>97</v>
+        <v>79</v>
       </c>
       <c r="C12">
         <v>1142</v>
@@ -13050,15 +15963,15 @@
         <v>27</v>
       </c>
       <c r="F12" t="s">
-        <v>99</v>
+        <v>81</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="15.75">
       <c r="A13" t="s">
-        <v>96</v>
+        <v>78</v>
       </c>
       <c r="B13" t="s">
-        <v>98</v>
+        <v>80</v>
       </c>
       <c r="C13">
         <v>1309</v>
@@ -13070,15 +15983,15 @@
         <v>27</v>
       </c>
       <c r="F13" t="s">
-        <v>99</v>
+        <v>81</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="15.75">
       <c r="A14" t="s">
-        <v>92</v>
+        <v>74</v>
       </c>
       <c r="B14" t="s">
-        <v>97</v>
+        <v>79</v>
       </c>
       <c r="C14">
         <v>345</v>
@@ -13090,15 +16003,15 @@
         <v>30</v>
       </c>
       <c r="F14" t="s">
-        <v>99</v>
+        <v>81</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="15.75">
       <c r="A15" t="s">
-        <v>92</v>
+        <v>74</v>
       </c>
       <c r="B15" t="s">
-        <v>98</v>
+        <v>80</v>
       </c>
       <c r="C15">
         <v>663</v>
@@ -13110,15 +16023,15 @@
         <v>30</v>
       </c>
       <c r="F15" t="s">
-        <v>99</v>
+        <v>81</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="15.75">
       <c r="A16" t="s">
-        <v>96</v>
+        <v>78</v>
       </c>
       <c r="B16" t="s">
-        <v>97</v>
+        <v>79</v>
       </c>
       <c r="C16" s="50">
         <v>6526</v>
@@ -13130,15 +16043,15 @@
         <v>30</v>
       </c>
       <c r="F16" t="s">
-        <v>99</v>
+        <v>81</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="15.75">
       <c r="A17" t="s">
-        <v>96</v>
+        <v>78</v>
       </c>
       <c r="B17" t="s">
-        <v>98</v>
+        <v>80</v>
       </c>
       <c r="C17">
         <v>5389</v>
@@ -13150,15 +16063,15 @@
         <v>30</v>
       </c>
       <c r="F17" t="s">
-        <v>99</v>
+        <v>81</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="15.75">
       <c r="A18" t="s">
-        <v>92</v>
+        <v>74</v>
       </c>
       <c r="B18" t="s">
-        <v>97</v>
+        <v>79</v>
       </c>
       <c r="C18">
         <v>84</v>
@@ -13170,15 +16083,15 @@
         <v>33</v>
       </c>
       <c r="F18" t="s">
-        <v>99</v>
+        <v>81</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="15.75">
       <c r="A19" t="s">
-        <v>92</v>
+        <v>74</v>
       </c>
       <c r="B19" t="s">
-        <v>98</v>
+        <v>80</v>
       </c>
       <c r="C19" s="50">
         <v>789</v>
@@ -13190,15 +16103,15 @@
         <v>33</v>
       </c>
       <c r="F19" t="s">
-        <v>94</v>
+        <v>76</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="15.75">
       <c r="A20" t="s">
-        <v>96</v>
+        <v>78</v>
       </c>
       <c r="B20" t="s">
-        <v>97</v>
+        <v>79</v>
       </c>
       <c r="C20">
         <v>4348</v>
@@ -13210,15 +16123,15 @@
         <v>33</v>
       </c>
       <c r="F20" t="s">
-        <v>94</v>
+        <v>76</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="15.75">
       <c r="A21" t="s">
-        <v>96</v>
+        <v>78</v>
       </c>
       <c r="B21" t="s">
-        <v>98</v>
+        <v>80</v>
       </c>
       <c r="C21">
         <v>2357</v>
@@ -13230,15 +16143,15 @@
         <v>33</v>
       </c>
       <c r="F21" t="s">
-        <v>94</v>
+        <v>76</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="15.75">
       <c r="A22" t="s">
-        <v>92</v>
+        <v>74</v>
       </c>
       <c r="B22" t="s">
-        <v>97</v>
+        <v>79</v>
       </c>
       <c r="C22">
         <v>747</v>
@@ -13250,15 +16163,15 @@
         <v>6</v>
       </c>
       <c r="F22" t="s">
-        <v>100</v>
+        <v>82</v>
       </c>
     </row>
     <row r="23" spans="1:6" ht="15.75">
       <c r="A23" t="s">
-        <v>92</v>
+        <v>74</v>
       </c>
       <c r="B23" t="s">
-        <v>98</v>
+        <v>80</v>
       </c>
       <c r="C23">
         <v>6242</v>
@@ -13270,15 +16183,15 @@
         <v>6</v>
       </c>
       <c r="F23" t="s">
-        <v>100</v>
+        <v>82</v>
       </c>
     </row>
     <row r="24" spans="1:6" ht="15.75">
       <c r="A24" t="s">
-        <v>96</v>
+        <v>78</v>
       </c>
       <c r="B24" t="s">
-        <v>97</v>
+        <v>79</v>
       </c>
       <c r="C24">
         <v>107</v>
@@ -13290,15 +16203,15 @@
         <v>6</v>
       </c>
       <c r="F24" t="s">
-        <v>100</v>
+        <v>82</v>
       </c>
     </row>
     <row r="25" spans="1:6" ht="15.75">
       <c r="A25" t="s">
-        <v>96</v>
+        <v>78</v>
       </c>
       <c r="B25" t="s">
-        <v>98</v>
+        <v>80</v>
       </c>
       <c r="C25">
         <v>49</v>
@@ -13310,15 +16223,15 @@
         <v>6</v>
       </c>
       <c r="F25" t="s">
-        <v>100</v>
+        <v>82</v>
       </c>
     </row>
     <row r="26" spans="1:6" ht="15.75">
       <c r="A26" t="s">
-        <v>92</v>
+        <v>74</v>
       </c>
       <c r="B26" t="s">
-        <v>93</v>
+        <v>75</v>
       </c>
       <c r="C26">
         <v>613</v>
@@ -13330,15 +16243,15 @@
         <v>36</v>
       </c>
       <c r="F26" t="s">
-        <v>94</v>
+        <v>76</v>
       </c>
     </row>
     <row r="27" spans="1:6" ht="15.75">
       <c r="A27" t="s">
-        <v>92</v>
+        <v>74</v>
       </c>
       <c r="B27" t="s">
-        <v>95</v>
+        <v>77</v>
       </c>
       <c r="C27">
         <v>965</v>
@@ -13350,15 +16263,15 @@
         <v>36</v>
       </c>
       <c r="F27" t="s">
-        <v>94</v>
+        <v>76</v>
       </c>
     </row>
     <row r="28" spans="1:6" ht="15.75">
       <c r="A28" t="s">
-        <v>96</v>
+        <v>78</v>
       </c>
       <c r="B28" t="s">
-        <v>97</v>
+        <v>79</v>
       </c>
       <c r="C28">
         <v>173</v>
@@ -13370,15 +16283,15 @@
         <v>36</v>
       </c>
       <c r="F28" t="s">
-        <v>94</v>
+        <v>76</v>
       </c>
     </row>
     <row r="29" spans="1:6" ht="15.75">
       <c r="A29" t="s">
-        <v>96</v>
+        <v>78</v>
       </c>
       <c r="B29" t="s">
-        <v>98</v>
+        <v>80</v>
       </c>
       <c r="C29">
         <v>212</v>
@@ -13390,15 +16303,15 @@
         <v>36</v>
       </c>
       <c r="F29" t="s">
-        <v>94</v>
+        <v>76</v>
       </c>
     </row>
     <row r="30" spans="1:6" ht="15.75">
       <c r="A30" t="s">
-        <v>92</v>
+        <v>74</v>
       </c>
       <c r="B30" t="s">
-        <v>93</v>
+        <v>75</v>
       </c>
       <c r="C30">
         <v>456</v>
@@ -13410,15 +16323,15 @@
         <v>15</v>
       </c>
       <c r="F30" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
     </row>
     <row r="31" spans="1:6" ht="15.75">
       <c r="A31" t="s">
-        <v>92</v>
+        <v>74</v>
       </c>
       <c r="B31" t="s">
-        <v>95</v>
+        <v>77</v>
       </c>
       <c r="C31">
         <v>887</v>
@@ -13430,15 +16343,15 @@
         <v>15</v>
       </c>
       <c r="F31" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
     </row>
     <row r="32" spans="1:6" ht="15.75">
       <c r="A32" t="s">
-        <v>96</v>
+        <v>78</v>
       </c>
       <c r="B32" t="s">
-        <v>97</v>
+        <v>79</v>
       </c>
       <c r="C32">
         <v>161</v>
@@ -13450,15 +16363,15 @@
         <v>15</v>
       </c>
       <c r="F32" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
     </row>
     <row r="33" spans="1:6" ht="15.75">
       <c r="A33" t="s">
-        <v>96</v>
+        <v>78</v>
       </c>
       <c r="B33" t="s">
-        <v>98</v>
+        <v>80</v>
       </c>
       <c r="C33">
         <v>558</v>
@@ -13470,15 +16383,15 @@
         <v>15</v>
       </c>
       <c r="F33" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
     </row>
     <row r="34" spans="1:6" ht="15.75">
       <c r="A34" t="s">
-        <v>92</v>
+        <v>74</v>
       </c>
       <c r="B34" t="s">
-        <v>93</v>
+        <v>75</v>
       </c>
       <c r="C34">
         <v>654</v>
@@ -13490,15 +16403,15 @@
         <v>9</v>
       </c>
       <c r="F34" t="s">
-        <v>94</v>
+        <v>76</v>
       </c>
     </row>
     <row r="35" spans="1:6" ht="15.75">
       <c r="A35" t="s">
-        <v>92</v>
+        <v>74</v>
       </c>
       <c r="B35" t="s">
-        <v>95</v>
+        <v>77</v>
       </c>
       <c r="C35">
         <v>1161</v>
@@ -13510,15 +16423,15 @@
         <v>9</v>
       </c>
       <c r="F35" t="s">
-        <v>94</v>
+        <v>76</v>
       </c>
     </row>
     <row r="36" spans="1:6" ht="15.75">
       <c r="A36" t="s">
-        <v>96</v>
+        <v>78</v>
       </c>
       <c r="B36" t="s">
-        <v>97</v>
+        <v>79</v>
       </c>
       <c r="C36">
         <v>1328</v>
@@ -13530,15 +16443,15 @@
         <v>9</v>
       </c>
       <c r="F36" t="s">
-        <v>94</v>
+        <v>76</v>
       </c>
     </row>
     <row r="37" spans="1:6" ht="15.75">
       <c r="A37" t="s">
-        <v>96</v>
+        <v>78</v>
       </c>
       <c r="B37" t="s">
-        <v>98</v>
+        <v>80</v>
       </c>
       <c r="C37">
         <v>2603</v>
@@ -13550,15 +16463,15 @@
         <v>9</v>
       </c>
       <c r="F37" t="s">
-        <v>94</v>
+        <v>76</v>
       </c>
     </row>
     <row r="38" spans="1:6" ht="15.75">
       <c r="A38" t="s">
-        <v>92</v>
+        <v>74</v>
       </c>
       <c r="B38" t="s">
-        <v>93</v>
+        <v>75</v>
       </c>
       <c r="C38">
         <v>220</v>
@@ -13570,15 +16483,15 @@
         <v>39</v>
       </c>
       <c r="F38" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
     </row>
     <row r="39" spans="1:6" ht="15.75">
       <c r="A39" t="s">
-        <v>92</v>
+        <v>74</v>
       </c>
       <c r="B39" t="s">
-        <v>95</v>
+        <v>77</v>
       </c>
       <c r="C39">
         <v>197</v>
@@ -13590,15 +16503,15 @@
         <v>39</v>
       </c>
       <c r="F39" t="s">
-        <v>94</v>
+        <v>76</v>
       </c>
     </row>
     <row r="40" spans="1:6" ht="15.75">
       <c r="A40" t="s">
-        <v>96</v>
+        <v>78</v>
       </c>
       <c r="B40" t="s">
-        <v>97</v>
+        <v>79</v>
       </c>
       <c r="C40">
         <v>163</v>
@@ -13610,15 +16523,15 @@
         <v>39</v>
       </c>
       <c r="F40" t="s">
-        <v>94</v>
+        <v>76</v>
       </c>
     </row>
     <row r="41" spans="1:6" ht="15.75">
       <c r="A41" t="s">
-        <v>96</v>
+        <v>78</v>
       </c>
       <c r="B41" t="s">
-        <v>98</v>
+        <v>80</v>
       </c>
       <c r="C41">
         <v>176</v>
@@ -13630,7 +16543,7 @@
         <v>39</v>
       </c>
       <c r="F41" t="s">
-        <v>94</v>
+        <v>76</v>
       </c>
     </row>
   </sheetData>
@@ -13670,7 +16583,7 @@
   <sheetData>
     <row r="1" spans="1:15" ht="15.75" thickBot="1">
       <c r="A1" s="72" t="s">
-        <v>107</v>
+        <v>89</v>
       </c>
       <c r="B1" s="73"/>
       <c r="C1" s="73"/>
@@ -13679,7 +16592,7 @@
       <c r="F1" s="73"/>
       <c r="G1" s="74"/>
       <c r="I1" s="72" t="s">
-        <v>108</v>
+        <v>90</v>
       </c>
       <c r="J1" s="73"/>
       <c r="K1" s="73"/>
@@ -13693,43 +16606,43 @@
         <v>0</v>
       </c>
       <c r="B2" s="67" t="s">
-        <v>101</v>
+        <v>83</v>
       </c>
       <c r="C2" s="67" t="s">
-        <v>102</v>
+        <v>84</v>
       </c>
       <c r="D2" s="67" t="s">
-        <v>103</v>
+        <v>85</v>
       </c>
       <c r="E2" s="68" t="s">
-        <v>104</v>
+        <v>86</v>
       </c>
       <c r="F2" s="68" t="s">
-        <v>105</v>
+        <v>87</v>
       </c>
       <c r="G2" s="69" t="s">
-        <v>106</v>
+        <v>88</v>
       </c>
       <c r="I2" s="62" t="s">
         <v>0</v>
       </c>
       <c r="J2" s="63" t="s">
-        <v>101</v>
+        <v>83</v>
       </c>
       <c r="K2" s="63" t="s">
-        <v>102</v>
+        <v>84</v>
       </c>
       <c r="L2" s="63" t="s">
-        <v>103</v>
+        <v>85</v>
       </c>
       <c r="M2" s="64" t="s">
-        <v>104</v>
+        <v>86</v>
       </c>
       <c r="N2" s="64" t="s">
-        <v>105</v>
+        <v>87</v>
       </c>
       <c r="O2" s="65" t="s">
-        <v>106</v>
+        <v>88</v>
       </c>
     </row>
     <row r="3" spans="1:15" ht="15.75">
